--- a/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_Data_Index.xlsx
+++ b/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_Data_Index.xlsx
@@ -23875,6 +23875,15 @@
       <c r="C980">
         <v>0.01</v>
       </c>
+      <c r="D980">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="E980">
+        <v>0.9890324056290852</v>
+      </c>
+      <c r="F980">
+        <v>0.06191663182958157</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
@@ -23914,6 +23923,15 @@
       <c r="C982">
         <v>0.01</v>
       </c>
+      <c r="D982">
+        <v>0.6788770493166885</v>
+      </c>
+      <c r="E982">
+        <v>0.9188242325033024</v>
+      </c>
+      <c r="F982">
+        <v>0.05509869702787155</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
@@ -24025,6 +24043,15 @@
       <c r="C987">
         <v>0.01</v>
       </c>
+      <c r="D987">
+        <v>0.8336251678939641</v>
+      </c>
+      <c r="E987">
+        <v>0.9688722498009591</v>
+      </c>
+      <c r="F987">
+        <v>0.06160247374067582</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
@@ -24064,6 +24091,15 @@
       <c r="C989">
         <v>0.01</v>
       </c>
+      <c r="D989">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="E989">
+        <v>0.9890324056290852</v>
+      </c>
+      <c r="F989">
+        <v>0.06191663182958157</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
@@ -24103,6 +24139,15 @@
       <c r="C991">
         <v>0.01</v>
       </c>
+      <c r="D991">
+        <v>0.6788770493166885</v>
+      </c>
+      <c r="E991">
+        <v>0.9188242325033024</v>
+      </c>
+      <c r="F991">
+        <v>0.05509869702787155</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
@@ -46509,6 +46554,15 @@
       </c>
       <c r="C1925">
         <v>0.01</v>
+      </c>
+      <c r="D1925">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="E1925">
+        <v>0.9890324056290852</v>
+      </c>
+      <c r="F1925">
+        <v>0.06191663182958157</v>
       </c>
     </row>
     <row r="1926">
